--- a/ConfigurationFiles/03-Score_weight_TG_Na.xlsx
+++ b/ConfigurationFiles/03-Score_weight_TG_Na.xlsx
@@ -30,40 +30,40 @@
     <t>Group</t>
   </si>
   <si>
-    <t>SN1_[FA-H2O+H]+</t>
-  </si>
-  <si>
-    <t>SN2_[FA-H2O+H]+</t>
-  </si>
-  <si>
-    <t>SN3_[FA-H2O+H]+</t>
-  </si>
-  <si>
-    <t>[MG(SN1)-H2O+H]+</t>
-  </si>
-  <si>
-    <t>[MG(SN2)-H2O+H]+</t>
-  </si>
-  <si>
-    <t>[MG(SN3)-H2O+H]+</t>
-  </si>
-  <si>
-    <t>[M-(SN1)+Na]+</t>
-  </si>
-  <si>
-    <t>[M-(SN2)+Na]+</t>
-  </si>
-  <si>
-    <t>[M-(SN3)+Na]+</t>
-  </si>
-  <si>
-    <t>[M-(SN1-H+Na)+H]+</t>
-  </si>
-  <si>
-    <t>[M-(SN2-H+Na)+H]+</t>
-  </si>
-  <si>
-    <t>[M-(SN3-H+Na)+H]+</t>
+    <t>FA1_[FA-H2O+H]+</t>
+  </si>
+  <si>
+    <t>FA2_[FA-H2O+H]+</t>
+  </si>
+  <si>
+    <t>FA3_[FA-H2O+H]+</t>
+  </si>
+  <si>
+    <t>[MG(FA1)-H2O+H]+</t>
+  </si>
+  <si>
+    <t>[MG(FA2)-H2O+H]+</t>
+  </si>
+  <si>
+    <t>[MG(FA3)-H2O+H]+</t>
+  </si>
+  <si>
+    <t>[M-(FA1)+Na]+</t>
+  </si>
+  <si>
+    <t>[M-(FA2)+Na]+</t>
+  </si>
+  <si>
+    <t>[M-(FA3)+Na]+</t>
+  </si>
+  <si>
+    <t>[M-(FA1-H+Na)+H]+</t>
+  </si>
+  <si>
+    <t>[M-(FA2-H+Na)+H]+</t>
+  </si>
+  <si>
+    <t>[M-(FA3-H+Na)+H]+</t>
   </si>
 </sst>
 </file>
@@ -417,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
